--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_01_end.xlsx
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="B 구역 죄수 A"]싸움이 벌어졌는데 끝나지 않았던 경우가 여러 번 있었는데…… 아니 멈출 수 없었다고 하는 게 더 정상이겠네, 오늘처럼 말하자마자 바로 끝나는 건 드문 일이야.
+    <t xml:space="preserve">[name="B 구역 죄수 A"]싸움이 벌어지고 멈출 수 없었던 경우가 여러 번 있었는데…… 아니 멈출 수 없었다고 하는 게 더 정상이지. 오늘처럼 말 한마디에 바로 끝나는 건 드문 일이야.
 </t>
   </si>
   <si>
